--- a/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.001022943196773</v>
+        <v>1.001022943196546</v>
       </c>
       <c r="D3">
         <v>3.421359041228698</v>
       </c>
       <c r="E3">
-        <v>6.16881643208265</v>
+        <v>6.16881643208248</v>
       </c>
       <c r="F3">
-        <v>39.7277944452423</v>
+        <v>39.72779444524218</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>31.62698581755066</v>
+        <v>31.62698581755046</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.095510704012383</v>
+        <v>1.095510704012369</v>
       </c>
       <c r="D4">
-        <v>3.695700613369212</v>
+        <v>3.695700613369183</v>
       </c>
       <c r="E4">
-        <v>7.964337870801486</v>
+        <v>7.964337870801515</v>
       </c>
       <c r="F4">
         <v>41.59844738037373</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>33.15488415530376</v>
+        <v>33.15488415530379</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.11822911812061</v>
+        <v>1.118229118119899</v>
       </c>
       <c r="D5">
-        <v>3.74494553016828</v>
+        <v>3.744945530168394</v>
       </c>
       <c r="E5">
-        <v>8.913069192321331</v>
+        <v>8.91306919232116</v>
       </c>
       <c r="F5">
-        <v>41.56856233481517</v>
+        <v>41.56856233481534</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>33.14634878394986</v>
+        <v>33.14634878395003</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.120898457981795</v>
+        <v>1.120898457982037</v>
       </c>
       <c r="D6">
-        <v>3.748803520178427</v>
+        <v>3.748803520178512</v>
       </c>
       <c r="E6">
-        <v>9.08717480910002</v>
+        <v>9.087174809099949</v>
       </c>
       <c r="F6">
-        <v>41.51083669087944</v>
+        <v>41.5108366908795</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>33.10282846379073</v>
+        <v>33.1028284637907</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -605,13 +605,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.095886695281862</v>
+        <v>1.095886695281877</v>
       </c>
       <c r="D7">
-        <v>3.696639853216425</v>
+        <v>3.696639853216197</v>
       </c>
       <c r="E7">
-        <v>7.976069273238721</v>
+        <v>7.976069273238863</v>
       </c>
       <c r="F7">
         <v>41.60146000232754</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>33.15749307327394</v>
+        <v>33.15749307327386</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D8">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E8">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F8">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D9">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E9">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F9">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D10">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E10">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F10">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D11">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E11">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F11">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D12">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E12">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F12">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D13">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E13">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F13">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D14">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E14">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F14">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D15">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E15">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F15">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D16">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E16">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F16">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D17">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E17">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F17">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D18">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E18">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F18">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D19">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E19">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F19">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D20">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E20">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F20">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D21">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E21">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F21">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D22">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E22">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F22">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D23">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E23">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F23">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D24">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E24">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F24">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.8182238497770413</v>
+        <v>0.8182238497768424</v>
       </c>
       <c r="D25">
-        <v>2.825942329596558</v>
+        <v>2.8259423295967</v>
       </c>
       <c r="E25">
-        <v>4.41600246760845</v>
+        <v>4.41600246760828</v>
       </c>
       <c r="F25">
-        <v>34.01022180930789</v>
+        <v>34.01022180930732</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27.0338710450547</v>
+        <v>27.03387104505427</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.001022943196546</v>
+        <v>1.001022943196773</v>
       </c>
       <c r="D3">
         <v>3.421359041228698</v>
       </c>
       <c r="E3">
-        <v>6.16881643208248</v>
+        <v>6.16881643208265</v>
       </c>
       <c r="F3">
-        <v>39.72779444524218</v>
+        <v>39.7277944452423</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>31.62698581755046</v>
+        <v>31.62698581755066</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.095510704012369</v>
+        <v>1.095510704012383</v>
       </c>
       <c r="D4">
-        <v>3.695700613369183</v>
+        <v>3.695700613369212</v>
       </c>
       <c r="E4">
-        <v>7.964337870801515</v>
+        <v>7.964337870801486</v>
       </c>
       <c r="F4">
         <v>41.59844738037373</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>33.15488415530379</v>
+        <v>33.15488415530376</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.118229118119899</v>
+        <v>1.11822911812061</v>
       </c>
       <c r="D5">
-        <v>3.744945530168394</v>
+        <v>3.74494553016828</v>
       </c>
       <c r="E5">
-        <v>8.91306919232116</v>
+        <v>8.913069192321331</v>
       </c>
       <c r="F5">
-        <v>41.56856233481534</v>
+        <v>41.56856233481517</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>33.14634878395003</v>
+        <v>33.14634878394986</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.120898457982037</v>
+        <v>1.120898457981795</v>
       </c>
       <c r="D6">
-        <v>3.748803520178512</v>
+        <v>3.748803520178427</v>
       </c>
       <c r="E6">
-        <v>9.087174809099949</v>
+        <v>9.08717480910002</v>
       </c>
       <c r="F6">
-        <v>41.5108366908795</v>
+        <v>41.51083669087944</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>33.1028284637907</v>
+        <v>33.10282846379073</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -605,13 +605,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.095886695281877</v>
+        <v>1.095886695281862</v>
       </c>
       <c r="D7">
-        <v>3.696639853216197</v>
+        <v>3.696639853216425</v>
       </c>
       <c r="E7">
-        <v>7.976069273238863</v>
+        <v>7.976069273238721</v>
       </c>
       <c r="F7">
         <v>41.60146000232754</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>33.15749307327386</v>
+        <v>33.15749307327394</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D8">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E8">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F8">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D9">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E9">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F9">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D10">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E10">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F10">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D11">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E11">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F11">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D12">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E12">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F12">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D13">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E13">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F13">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D14">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E14">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F14">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D15">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E15">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F15">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D16">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E16">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F16">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D17">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E17">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F17">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D18">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E18">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F18">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D19">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E19">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F19">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D20">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E20">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F20">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D21">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E21">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F21">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D22">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E22">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F22">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D23">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E23">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F23">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D24">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E24">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F24">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.8182238497768424</v>
+        <v>0.8182238497770413</v>
       </c>
       <c r="D25">
-        <v>2.8259423295967</v>
+        <v>2.825942329596558</v>
       </c>
       <c r="E25">
-        <v>4.41600246760828</v>
+        <v>4.41600246760845</v>
       </c>
       <c r="F25">
-        <v>34.01022180930732</v>
+        <v>34.01022180930789</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27.03387104505427</v>
+        <v>27.0338710450547</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,73 +456,79 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1566866180418316</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0007790016065369887</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.539702346963594</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.411838194398939</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.470788636571314</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.7146522364114674</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,122 +460,1088 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>4.569781030130059</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.135090118287593</v>
+      </c>
+      <c r="D3">
+        <v>0.0006217117501221558</v>
+      </c>
+      <c r="E3">
+        <v>1.315835099816127</v>
+      </c>
+      <c r="F3">
+        <v>1.220407820569562</v>
+      </c>
+      <c r="G3">
+        <v>1.266870858494201</v>
+      </c>
+      <c r="H3">
+        <v>0.6243425658030333</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>3.947959874792616</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.1220160928852891</v>
+      </c>
+      <c r="D4">
+        <v>0.0005359160905957783</v>
+      </c>
+      <c r="E4">
+        <v>1.181899225866502</v>
+      </c>
+      <c r="F4">
+        <v>1.10504745481542</v>
+      </c>
+      <c r="G4">
+        <v>1.143911410703993</v>
+      </c>
+      <c r="H4">
+        <v>0.5701128960520805</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>3.57346229737999</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.1167283820075085</v>
+      </c>
+      <c r="D5">
+        <v>0.0005031721034667314</v>
+      </c>
+      <c r="E5">
+        <v>1.128062344840757</v>
+      </c>
+      <c r="F5">
+        <v>1.058511772599587</v>
+      </c>
+      <c r="G5">
+        <v>1.094289171362561</v>
+      </c>
+      <c r="H5">
+        <v>0.5482838683210502</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>3.422440297432843</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.1158525928203886</v>
+      </c>
+      <c r="D6">
+        <v>0.0004978558879189521</v>
+      </c>
+      <c r="E6">
+        <v>1.119163788280432</v>
+      </c>
+      <c r="F6">
+        <v>1.050811200407281</v>
+      </c>
+      <c r="G6">
+        <v>1.086076498555542</v>
+      </c>
+      <c r="H6">
+        <v>0.5446744620098514</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>3.397452337260404</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.1219446273490803</v>
+      </c>
+      <c r="D7">
+        <v>0.0005354661118919246</v>
+      </c>
+      <c r="E7">
+        <v>1.181170330750064</v>
+      </c>
+      <c r="F7">
+        <v>1.104418028916456</v>
+      </c>
+      <c r="G7">
+        <v>1.143240326169888</v>
+      </c>
+      <c r="H7">
+        <v>0.5698174554598552</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>3.571419440487318</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.1491972113656175</v>
+      </c>
+      <c r="D8">
+        <v>0.0007222109979456715</v>
+      </c>
+      <c r="E8">
+        <v>1.461691969660308</v>
+      </c>
+      <c r="F8">
+        <v>1.345334653042102</v>
+      </c>
+      <c r="G8">
+        <v>1.399960810394134</v>
+      </c>
+      <c r="H8">
+        <v>0.6832367467129075</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>4.353705122039003</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.204456856485578</v>
+      </c>
+      <c r="D9">
+        <v>0.001200558150945996</v>
+      </c>
+      <c r="E9">
+        <v>2.047072157524553</v>
+      </c>
+      <c r="F9">
+        <v>1.838748340527687</v>
+      </c>
+      <c r="G9">
+        <v>1.925268169828058</v>
+      </c>
+      <c r="H9">
+        <v>0.9172050607766096</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>5.958210129437646</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.2466935326659438</v>
+      </c>
+      <c r="D10">
+        <v>0.001665928837234043</v>
+      </c>
+      <c r="E10">
+        <v>2.510691302386874</v>
+      </c>
+      <c r="F10">
+        <v>2.219875943706441</v>
+      </c>
+      <c r="G10">
+        <v>2.330962373727431</v>
+      </c>
+      <c r="H10">
+        <v>1.09909916184327</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>7.199767712873665</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.2663997739901163</v>
+      </c>
+      <c r="D11">
+        <v>0.001915683332999851</v>
+      </c>
+      <c r="E11">
+        <v>2.732207894186843</v>
+      </c>
+      <c r="F11">
+        <v>2.398828895108991</v>
+      </c>
+      <c r="G11">
+        <v>2.521496307624062</v>
+      </c>
+      <c r="H11">
+        <v>1.184794111419876</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>7.783400823173906</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.2739459154646084</v>
+      </c>
+      <c r="D12">
+        <v>0.002017159607169194</v>
+      </c>
+      <c r="E12">
+        <v>2.817957909843145</v>
+      </c>
+      <c r="F12">
+        <v>2.467544679729755</v>
+      </c>
+      <c r="G12">
+        <v>2.594671883425747</v>
+      </c>
+      <c r="H12">
+        <v>1.217744867605148</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>8.007626460111908</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.2723167654307161</v>
+      </c>
+      <c r="D13">
+        <v>0.001994971833452874</v>
+      </c>
+      <c r="E13">
+        <v>2.799400977174699</v>
+      </c>
+      <c r="F13">
+        <v>2.452700644388045</v>
+      </c>
+      <c r="G13">
+        <v>2.578863761051139</v>
+      </c>
+      <c r="H13">
+        <v>1.210624768791092</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>7.959183500102256</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.2670188391470418</v>
+      </c>
+      <c r="D14">
+        <v>0.001923884253016483</v>
+      </c>
+      <c r="E14">
+        <v>2.739223011611102</v>
+      </c>
+      <c r="F14">
+        <v>2.404462211913071</v>
+      </c>
+      <c r="G14">
+        <v>2.527494942718363</v>
+      </c>
+      <c r="H14">
+        <v>1.187494495968991</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>7.801780359757856</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.2637850368220427</v>
+      </c>
+      <c r="D15">
+        <v>0.001881287360197215</v>
+      </c>
+      <c r="E15">
+        <v>2.702616540131174</v>
+      </c>
+      <c r="F15">
+        <v>2.375043301035859</v>
+      </c>
+      <c r="G15">
+        <v>2.496168782648425</v>
+      </c>
+      <c r="H15">
+        <v>1.173394083632843</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>7.705801621844785</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.2454166663309394</v>
+      </c>
+      <c r="D16">
+        <v>0.001650487615669549</v>
+      </c>
+      <c r="E16">
+        <v>2.496455913496703</v>
+      </c>
+      <c r="F16">
+        <v>2.208305345196521</v>
+      </c>
+      <c r="G16">
+        <v>2.318644397300517</v>
+      </c>
+      <c r="H16">
+        <v>1.093564380942098</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>7.16204670892489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.2342831362160211</v>
+      </c>
+      <c r="D17">
+        <v>0.001519568057898102</v>
+      </c>
+      <c r="E17">
+        <v>2.372924424841159</v>
+      </c>
+      <c r="F17">
+        <v>2.107544109263912</v>
+      </c>
+      <c r="G17">
+        <v>2.211380449953793</v>
+      </c>
+      <c r="H17">
+        <v>1.045397530264665</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>6.833634345312646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.227924915860811</v>
+      </c>
+      <c r="D18">
+        <v>0.001447746894549962</v>
+      </c>
+      <c r="E18">
+        <v>2.302847725260563</v>
+      </c>
+      <c r="F18">
+        <v>2.050103710398403</v>
+      </c>
+      <c r="G18">
+        <v>2.150236926957291</v>
+      </c>
+      <c r="H18">
+        <v>1.017965804266311</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>6.646479369480517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.2257795766694102</v>
+      </c>
+      <c r="D19">
+        <v>0.001423988621745309</v>
+      </c>
+      <c r="E19">
+        <v>2.279279107076533</v>
+      </c>
+      <c r="F19">
+        <v>2.030739619932632</v>
+      </c>
+      <c r="G19">
+        <v>2.129624943839673</v>
+      </c>
+      <c r="H19">
+        <v>1.008722580316714</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>6.58339635798643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.2354635226563886</v>
+      </c>
+      <c r="D20">
+        <v>0.001533135105261429</v>
+      </c>
+      <c r="E20">
+        <v>2.385971352643622</v>
+      </c>
+      <c r="F20">
+        <v>2.1182160289341</v>
+      </c>
+      <c r="G20">
+        <v>2.222740651145301</v>
+      </c>
+      <c r="H20">
+        <v>1.050496250780782</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>6.8684109743661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.2685725815506714</v>
+      </c>
+      <c r="D21">
+        <v>0.00194456418057265</v>
+      </c>
+      <c r="E21">
+        <v>2.756845047937404</v>
+      </c>
+      <c r="F21">
+        <v>2.418603928241637</v>
+      </c>
+      <c r="G21">
+        <v>2.542553970381505</v>
+      </c>
+      <c r="H21">
+        <v>1.194274189295385</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>7.847921759980068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.2907071650736555</v>
+      </c>
+      <c r="D22">
+        <v>0.002254582338830469</v>
+      </c>
+      <c r="E22">
+        <v>3.010319739583579</v>
+      </c>
+      <c r="F22">
+        <v>2.620548946979468</v>
+      </c>
+      <c r="G22">
+        <v>2.75763744905791</v>
+      </c>
+      <c r="H22">
+        <v>1.291199280796121</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>8.507130627983884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.2788433801040782</v>
+      </c>
+      <c r="D23">
+        <v>0.002084797735839583</v>
+      </c>
+      <c r="E23">
+        <v>2.873890840097175</v>
+      </c>
+      <c r="F23">
+        <v>2.51219743276171</v>
+      </c>
+      <c r="G23">
+        <v>2.642227108740599</v>
+      </c>
+      <c r="H23">
+        <v>1.239169762788634</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>8.153367650803432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.2349297382323812</v>
+      </c>
+      <c r="D24">
+        <v>0.00152699081214358</v>
+      </c>
+      <c r="E24">
+        <v>2.380069923486857</v>
+      </c>
+      <c r="F24">
+        <v>2.113389743152652</v>
+      </c>
+      <c r="G24">
+        <v>2.217603084283724</v>
+      </c>
+      <c r="H24">
+        <v>1.048190314840525</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>6.852683346838091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.1892619663242243</v>
+      </c>
+      <c r="D25">
+        <v>0.001054976978679179</v>
+      </c>
+      <c r="E25">
+        <v>1.883804834416679</v>
+      </c>
+      <c r="F25">
+        <v>1.70246228754786</v>
+      </c>
+      <c r="G25">
+        <v>1.780202249119583</v>
+      </c>
+      <c r="H25">
+        <v>0.8523906442427176</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>5.514713072742381</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1566866180418316</v>
+        <v>0.05077011142869026</v>
       </c>
       <c r="D2">
-        <v>0.0007790016065369887</v>
+        <v>0.0002214791267671767</v>
       </c>
       <c r="E2">
-        <v>1.539702346963594</v>
+        <v>0.433077893614751</v>
       </c>
       <c r="F2">
-        <v>1.411838194398939</v>
+        <v>0.6071500647314707</v>
       </c>
       <c r="G2">
-        <v>1.470788636571314</v>
+        <v>0.5211106091078648</v>
       </c>
       <c r="H2">
-        <v>0.7146522364114674</v>
+        <v>0.4720876509364018</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.569781030130059</v>
+        <v>1.947170118530437</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.135090118287593</v>
+        <v>0.04498916608328329</v>
       </c>
       <c r="D3">
-        <v>0.0006217117501221558</v>
+        <v>0.0002074950312334067</v>
       </c>
       <c r="E3">
-        <v>1.315835099816127</v>
+        <v>0.3774308521777385</v>
       </c>
       <c r="F3">
-        <v>1.220407820569562</v>
+        <v>0.5604074233863656</v>
       </c>
       <c r="G3">
-        <v>1.266870858494201</v>
+        <v>0.4694198853887883</v>
       </c>
       <c r="H3">
-        <v>0.6243425658030333</v>
+        <v>0.4524053179118823</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.947959874792616</v>
+        <v>1.795960797759449</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1220160928852891</v>
+        <v>0.04145654160129197</v>
       </c>
       <c r="D4">
-        <v>0.0005359160905957783</v>
+        <v>0.0001990096585884338</v>
       </c>
       <c r="E4">
-        <v>1.181899225866502</v>
+        <v>0.3433846769561768</v>
       </c>
       <c r="F4">
-        <v>1.10504745481542</v>
+        <v>0.5320651601840893</v>
       </c>
       <c r="G4">
-        <v>1.143911410703993</v>
+        <v>0.4379383000529629</v>
       </c>
       <c r="H4">
-        <v>0.5701128960520805</v>
+        <v>0.44062004469518</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.57346229737999</v>
+        <v>1.704272837477333</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1167283820075085</v>
+        <v>0.04002112976300509</v>
       </c>
       <c r="D5">
-        <v>0.0005031721034667314</v>
+        <v>0.0001955709885816947</v>
       </c>
       <c r="E5">
-        <v>1.128062344840757</v>
+        <v>0.3295384505563277</v>
       </c>
       <c r="F5">
-        <v>1.058511772599587</v>
+        <v>0.5206045375284845</v>
       </c>
       <c r="G5">
-        <v>1.094289171362561</v>
+        <v>0.4251727262033</v>
       </c>
       <c r="H5">
-        <v>0.5482838683210502</v>
+        <v>0.4358924360248295</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.422440297432843</v>
+        <v>1.667196503579476</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1158525928203886</v>
+        <v>0.03978302949418833</v>
       </c>
       <c r="D6">
-        <v>0.0004978558879189521</v>
+        <v>0.000195000981591642</v>
       </c>
       <c r="E6">
-        <v>1.119163788280432</v>
+        <v>0.3272409014578557</v>
       </c>
       <c r="F6">
-        <v>1.050811200407281</v>
+        <v>0.5187068634029828</v>
       </c>
       <c r="G6">
-        <v>1.086076498555542</v>
+        <v>0.4230568104948986</v>
       </c>
       <c r="H6">
-        <v>0.5446744620098514</v>
+        <v>0.4351119378591193</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.397452337260404</v>
+        <v>1.661057262505437</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1219446273490803</v>
+        <v>0.04143716640180628</v>
       </c>
       <c r="D7">
-        <v>0.0005354661118919246</v>
+        <v>0.0001989632139858255</v>
       </c>
       <c r="E7">
-        <v>1.181170330750064</v>
+        <v>0.343197832528972</v>
       </c>
       <c r="F7">
-        <v>1.104418028916456</v>
+        <v>0.5319102387529284</v>
       </c>
       <c r="G7">
-        <v>1.143240326169888</v>
+        <v>0.4377658837299805</v>
       </c>
       <c r="H7">
-        <v>0.5698174554598552</v>
+        <v>0.4405559834186477</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.571419440487318</v>
+        <v>1.703771654249749</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1491972113656175</v>
+        <v>0.04877327908346274</v>
       </c>
       <c r="D8">
-        <v>0.0007222109979456715</v>
+        <v>0.0002166326727266465</v>
       </c>
       <c r="E8">
-        <v>1.461691969660308</v>
+        <v>0.413863998094115</v>
       </c>
       <c r="F8">
-        <v>1.345334653042102</v>
+        <v>0.5909583477640865</v>
       </c>
       <c r="G8">
-        <v>1.399960810394134</v>
+        <v>0.5032336662154933</v>
       </c>
       <c r="H8">
-        <v>0.6832367467129075</v>
+        <v>0.465238723657535</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.353705122039003</v>
+        <v>1.894791391600791</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.204456856485578</v>
+        <v>0.06329817106427527</v>
       </c>
       <c r="D9">
-        <v>0.001200558150945996</v>
+        <v>0.0002523725682925804</v>
       </c>
       <c r="E9">
-        <v>2.047072157524553</v>
+        <v>0.553528932277672</v>
       </c>
       <c r="F9">
-        <v>1.838748340527687</v>
+        <v>0.7096393624567696</v>
       </c>
       <c r="G9">
-        <v>1.925268169828058</v>
+        <v>0.6337105273447605</v>
       </c>
       <c r="H9">
-        <v>0.9172050607766096</v>
+        <v>0.5160408099663414</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.958210129437646</v>
+        <v>2.278712888236157</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2466935326659438</v>
+        <v>0.07406179888700137</v>
       </c>
       <c r="D10">
-        <v>0.001665928837234043</v>
+        <v>0.0002797112521155665</v>
       </c>
       <c r="E10">
-        <v>2.510691302386874</v>
+        <v>0.6569889858712514</v>
       </c>
       <c r="F10">
-        <v>2.219875943706441</v>
+        <v>0.7986707726857531</v>
       </c>
       <c r="G10">
-        <v>2.330962373727431</v>
+        <v>0.7309386318265751</v>
       </c>
       <c r="H10">
-        <v>1.09909916184327</v>
+        <v>0.5548613196053225</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>7.199767712873665</v>
+        <v>2.566730516189352</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2663997739901163</v>
+        <v>0.0789801732273645</v>
       </c>
       <c r="D11">
-        <v>0.001915683332999851</v>
+        <v>0.0002924779469006822</v>
       </c>
       <c r="E11">
-        <v>2.732207894186843</v>
+        <v>0.7042806635774639</v>
       </c>
       <c r="F11">
-        <v>2.398828895108991</v>
+        <v>0.8395893270043331</v>
       </c>
       <c r="G11">
-        <v>2.521496307624062</v>
+        <v>0.7754870784961554</v>
       </c>
       <c r="H11">
-        <v>1.184794111419876</v>
+        <v>0.5728542709317423</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>7.783400823173906</v>
+        <v>2.699107961274422</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2739459154646084</v>
+        <v>0.08084590513000478</v>
       </c>
       <c r="D12">
-        <v>0.002017159607169194</v>
+        <v>0.0002973680178814941</v>
       </c>
       <c r="E12">
-        <v>2.817957909843145</v>
+        <v>0.7222246361524327</v>
       </c>
       <c r="F12">
-        <v>2.467544679729755</v>
+        <v>0.8551453888328808</v>
       </c>
       <c r="G12">
-        <v>2.594671883425747</v>
+        <v>0.792403709720702</v>
       </c>
       <c r="H12">
-        <v>1.217744867605148</v>
+        <v>0.5797161956361379</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>8.007626460111908</v>
+        <v>2.749435134041619</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2723167654307161</v>
+        <v>0.08044394031183799</v>
       </c>
       <c r="D13">
-        <v>0.001994971833452874</v>
+        <v>0.000296312247906716</v>
       </c>
       <c r="E13">
-        <v>2.799400977174699</v>
+        <v>0.7183584476847926</v>
       </c>
       <c r="F13">
-        <v>2.452700644388045</v>
+        <v>0.8517923789561763</v>
       </c>
       <c r="G13">
-        <v>2.578863761051139</v>
+        <v>0.7887582956824133</v>
       </c>
       <c r="H13">
-        <v>1.210624768791092</v>
+        <v>0.5782361981203792</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>7.959183500102256</v>
+        <v>2.73858738144321</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2670188391470418</v>
+        <v>0.07913360242827139</v>
       </c>
       <c r="D14">
-        <v>0.001923884253016483</v>
+        <v>0.000292879094427656</v>
       </c>
       <c r="E14">
-        <v>2.739223011611102</v>
+        <v>0.7057561935255734</v>
       </c>
       <c r="F14">
-        <v>2.404462211913071</v>
+        <v>0.8408679032461777</v>
       </c>
       <c r="G14">
-        <v>2.527494942718363</v>
+        <v>0.7768778687636484</v>
       </c>
       <c r="H14">
-        <v>1.187494495968991</v>
+        <v>0.5734178332718614</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>7.801780359757856</v>
+        <v>2.70324440486047</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2637850368220427</v>
+        <v>0.07833140874210187</v>
       </c>
       <c r="D15">
-        <v>0.001881287360197215</v>
+        <v>0.0002907836756118609</v>
       </c>
       <c r="E15">
-        <v>2.702616540131174</v>
+        <v>0.69804167939904</v>
       </c>
       <c r="F15">
-        <v>2.375043301035859</v>
+        <v>0.8341843332764256</v>
       </c>
       <c r="G15">
-        <v>2.496168782648425</v>
+        <v>0.7696069354176416</v>
       </c>
       <c r="H15">
-        <v>1.173394083632843</v>
+        <v>0.5704727604213815</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>7.705801621844785</v>
+        <v>2.681621796540753</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2454166663309394</v>
+        <v>0.07374082122164793</v>
       </c>
       <c r="D16">
-        <v>0.001650487615669549</v>
+        <v>0.0002788842494367838</v>
       </c>
       <c r="E16">
-        <v>2.496455913496703</v>
+        <v>0.6539031880556792</v>
       </c>
       <c r="F16">
-        <v>2.208305345196521</v>
+        <v>0.7960051418863259</v>
       </c>
       <c r="G16">
-        <v>2.318644397300517</v>
+        <v>0.7280338090901068</v>
       </c>
       <c r="H16">
-        <v>1.093564380942098</v>
+        <v>0.5536921836553006</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>7.16204670892489</v>
+        <v>2.558106947691215</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2342831362160211</v>
+        <v>0.07093033230584922</v>
       </c>
       <c r="D17">
-        <v>0.001519568057898102</v>
+        <v>0.0002716745862196834</v>
       </c>
       <c r="E17">
-        <v>2.372924424841159</v>
+        <v>0.6268859407979761</v>
       </c>
       <c r="F17">
-        <v>2.107544109263912</v>
+        <v>0.7726911580841431</v>
       </c>
       <c r="G17">
-        <v>2.211380449953793</v>
+        <v>0.7026125999636008</v>
       </c>
       <c r="H17">
-        <v>1.045397530264665</v>
+        <v>0.5434835327371275</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.833634345312646</v>
+        <v>2.482684641670062</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.227924915860811</v>
+        <v>0.06931587337912504</v>
       </c>
       <c r="D18">
-        <v>0.001447746894549962</v>
+        <v>0.0002675583530535874</v>
       </c>
       <c r="E18">
-        <v>2.302847725260563</v>
+        <v>0.6113675376913505</v>
       </c>
       <c r="F18">
-        <v>2.050103710398403</v>
+        <v>0.7593208267845739</v>
       </c>
       <c r="G18">
-        <v>2.150236926957291</v>
+        <v>0.6880209333434948</v>
       </c>
       <c r="H18">
-        <v>1.017965804266311</v>
+        <v>0.5376431314455203</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>6.646479369480517</v>
+        <v>2.439431214395086</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2257795766694102</v>
+        <v>0.06876959626471546</v>
       </c>
       <c r="D19">
-        <v>0.001423988621745309</v>
+        <v>0.0002661696759360677</v>
       </c>
       <c r="E19">
-        <v>2.279279107076533</v>
+        <v>0.6061168248241273</v>
       </c>
       <c r="F19">
-        <v>2.030739619932632</v>
+        <v>0.7548005734839336</v>
       </c>
       <c r="G19">
-        <v>2.129624943839673</v>
+        <v>0.6830855503779958</v>
       </c>
       <c r="H19">
-        <v>1.008722580316714</v>
+        <v>0.5356710416513693</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6.58339635798643</v>
+        <v>2.424808134334114</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2354635226563886</v>
+        <v>0.07122929976867454</v>
       </c>
       <c r="D20">
-        <v>0.001533135105261429</v>
+        <v>0.0002724388452548521</v>
       </c>
       <c r="E20">
-        <v>2.385971352643622</v>
+        <v>0.6297597570736286</v>
       </c>
       <c r="F20">
-        <v>2.1182160289341</v>
+        <v>0.775168901272778</v>
       </c>
       <c r="G20">
-        <v>2.222740651145301</v>
+        <v>0.7053156233761513</v>
       </c>
       <c r="H20">
-        <v>1.050496250780782</v>
+        <v>0.5445670137242189</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>6.8684109743661</v>
+        <v>2.490700254398405</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2685725815506714</v>
+        <v>0.07951839145820827</v>
       </c>
       <c r="D21">
-        <v>0.00194456418057265</v>
+        <v>0.0002938859198775567</v>
       </c>
       <c r="E21">
-        <v>2.756845047937404</v>
+        <v>0.7094567898753326</v>
       </c>
       <c r="F21">
-        <v>2.418603928241637</v>
+        <v>0.8440750202746301</v>
       </c>
       <c r="G21">
-        <v>2.542553970381505</v>
+        <v>0.7803661498239478</v>
       </c>
       <c r="H21">
-        <v>1.194274189295385</v>
+        <v>0.574831787014972</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>7.847921759980068</v>
+        <v>2.713620071985758</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2907071650736555</v>
+        <v>0.08495478170297588</v>
       </c>
       <c r="D22">
-        <v>0.002254582338830469</v>
+        <v>0.0003082308939936773</v>
       </c>
       <c r="E22">
-        <v>3.010319739583579</v>
+        <v>0.761752559676097</v>
       </c>
       <c r="F22">
-        <v>2.620548946979468</v>
+        <v>0.8894657372637198</v>
       </c>
       <c r="G22">
-        <v>2.75763744905791</v>
+        <v>0.8296911384626071</v>
       </c>
       <c r="H22">
-        <v>1.291199280796121</v>
+        <v>0.5948938050911465</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>8.507130627983884</v>
+        <v>2.860470985179631</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2788433801040782</v>
+        <v>0.08205150890745472</v>
       </c>
       <c r="D23">
-        <v>0.002084797735839583</v>
+        <v>0.000300541928678788</v>
       </c>
       <c r="E23">
-        <v>2.873890840097175</v>
+        <v>0.7338211921434805</v>
       </c>
       <c r="F23">
-        <v>2.51219743276171</v>
+        <v>0.8652068872278846</v>
       </c>
       <c r="G23">
-        <v>2.642227108740599</v>
+        <v>0.8033398739481754</v>
       </c>
       <c r="H23">
-        <v>1.239169762788634</v>
+        <v>0.5841603510019127</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>8.153367650803432</v>
+        <v>2.781986552202</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2349297382323812</v>
+        <v>0.0710941324479677</v>
       </c>
       <c r="D24">
-        <v>0.00152699081214358</v>
+        <v>0.0002720932353230676</v>
       </c>
       <c r="E24">
-        <v>2.380069923486857</v>
+        <v>0.6284604608163136</v>
       </c>
       <c r="F24">
-        <v>2.113389743152652</v>
+        <v>0.774048610279479</v>
       </c>
       <c r="G24">
-        <v>2.217603084283724</v>
+        <v>0.7040935139324063</v>
       </c>
       <c r="H24">
-        <v>1.048190314840525</v>
+        <v>0.5440770826470782</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>6.852683346838091</v>
+        <v>2.487076060191725</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1892619663242243</v>
+        <v>0.05935316374288391</v>
       </c>
       <c r="D25">
-        <v>0.001054976978679179</v>
+        <v>0.0002425453254126797</v>
       </c>
       <c r="E25">
-        <v>1.883804834416679</v>
+        <v>0.5156103763282829</v>
       </c>
       <c r="F25">
-        <v>1.70246228754786</v>
+        <v>0.677216033168321</v>
       </c>
       <c r="G25">
-        <v>1.780202249119583</v>
+        <v>0.5981795963497518</v>
       </c>
       <c r="H25">
-        <v>0.8523906442427176</v>
+        <v>0.5020371973616591</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.514713072742381</v>
+        <v>2.173826014020051</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05077011142869026</v>
+        <v>0.15668661804186</v>
       </c>
       <c r="D2">
-        <v>0.0002214791267671767</v>
+        <v>0.000779001606727503</v>
       </c>
       <c r="E2">
-        <v>0.433077893614751</v>
+        <v>1.53970234696358</v>
       </c>
       <c r="F2">
-        <v>0.6071500647314707</v>
+        <v>1.411838194398925</v>
       </c>
       <c r="G2">
-        <v>0.5211106091078648</v>
+        <v>1.47078863657137</v>
       </c>
       <c r="H2">
-        <v>0.4720876509364018</v>
+        <v>0.7146522364114389</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.947170118530437</v>
+        <v>4.569781030130059</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04498916608328329</v>
+        <v>0.1350901182879056</v>
       </c>
       <c r="D3">
-        <v>0.0002074950312334067</v>
+        <v>0.0006217117502329561</v>
       </c>
       <c r="E3">
-        <v>0.3774308521777385</v>
+        <v>1.315835099816113</v>
       </c>
       <c r="F3">
-        <v>0.5604074233863656</v>
+        <v>1.220407820569577</v>
       </c>
       <c r="G3">
-        <v>0.4694198853887883</v>
+        <v>1.266870858494229</v>
       </c>
       <c r="H3">
-        <v>0.4524053179118823</v>
+        <v>0.6243425658030048</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.795960797759449</v>
+        <v>3.947959874792616</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04145654160129197</v>
+        <v>0.1220160928854597</v>
       </c>
       <c r="D4">
-        <v>0.0001990096585884338</v>
+        <v>0.0005359160906732718</v>
       </c>
       <c r="E4">
-        <v>0.3433846769561768</v>
+        <v>1.18189922586653</v>
       </c>
       <c r="F4">
-        <v>0.5320651601840893</v>
+        <v>1.105047454815391</v>
       </c>
       <c r="G4">
-        <v>0.4379383000529629</v>
+        <v>1.143911410704021</v>
       </c>
       <c r="H4">
-        <v>0.44062004469518</v>
+        <v>0.5701128960520805</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.704272837477333</v>
+        <v>3.57346229737999</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04002112976300509</v>
+        <v>0.11672838200775</v>
       </c>
       <c r="D5">
-        <v>0.0001955709885816947</v>
+        <v>0.0005031721035784198</v>
       </c>
       <c r="E5">
-        <v>0.3295384505563277</v>
+        <v>1.128062344840757</v>
       </c>
       <c r="F5">
-        <v>0.5206045375284845</v>
+        <v>1.058511772599587</v>
       </c>
       <c r="G5">
-        <v>0.4251727262033</v>
+        <v>1.094289171362476</v>
       </c>
       <c r="H5">
-        <v>0.4358924360248295</v>
+        <v>0.5482838683211639</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.667196503579476</v>
+        <v>3.422440297432729</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03978302949418833</v>
+        <v>0.1158525928203886</v>
       </c>
       <c r="D6">
-        <v>0.000195000981591642</v>
+        <v>0.00049785588780904</v>
       </c>
       <c r="E6">
-        <v>0.3272409014578557</v>
+        <v>1.119163788280417</v>
       </c>
       <c r="F6">
-        <v>0.5187068634029828</v>
+        <v>1.050811200407267</v>
       </c>
       <c r="G6">
-        <v>0.4230568104948986</v>
+        <v>1.086076498555599</v>
       </c>
       <c r="H6">
-        <v>0.4351119378591193</v>
+        <v>0.5446744620098514</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.661057262505437</v>
+        <v>3.397452337260404</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04143716640180628</v>
+        <v>0.1219446273492082</v>
       </c>
       <c r="D7">
-        <v>0.0001989632139858255</v>
+        <v>0.0005354661119614246</v>
       </c>
       <c r="E7">
-        <v>0.343197832528972</v>
+        <v>1.181170330750106</v>
       </c>
       <c r="F7">
-        <v>0.5319102387529284</v>
+        <v>1.10441802891647</v>
       </c>
       <c r="G7">
-        <v>0.4377658837299805</v>
+        <v>1.143240326169803</v>
       </c>
       <c r="H7">
-        <v>0.4405559834186477</v>
+        <v>0.5698174554598552</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.703771654249749</v>
+        <v>3.571419440487318</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04877327908346274</v>
+        <v>0.1491972113657596</v>
       </c>
       <c r="D8">
-        <v>0.0002166326727266465</v>
+        <v>0.0007222109979487801</v>
       </c>
       <c r="E8">
-        <v>0.413863998094115</v>
+        <v>1.46169196966035</v>
       </c>
       <c r="F8">
-        <v>0.5909583477640865</v>
+        <v>1.345334653042116</v>
       </c>
       <c r="G8">
-        <v>0.5032336662154933</v>
+        <v>1.399960810394191</v>
       </c>
       <c r="H8">
-        <v>0.465238723657535</v>
+        <v>0.6832367467129075</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.894791391600791</v>
+        <v>4.353705122039003</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06329817106427527</v>
+        <v>0.2044568564856917</v>
       </c>
       <c r="D9">
-        <v>0.0002523725682925804</v>
+        <v>0.001200558151039477</v>
       </c>
       <c r="E9">
-        <v>0.553528932277672</v>
+        <v>2.047072157524525</v>
       </c>
       <c r="F9">
-        <v>0.7096393624567696</v>
+        <v>1.838748340527687</v>
       </c>
       <c r="G9">
-        <v>0.6337105273447605</v>
+        <v>1.925268169828058</v>
       </c>
       <c r="H9">
-        <v>0.5160408099663414</v>
+        <v>0.9172050607765243</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.278712888236157</v>
+        <v>5.958210129437589</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07406179888700137</v>
+        <v>0.2466935326657165</v>
       </c>
       <c r="D10">
-        <v>0.0002797112521155665</v>
+        <v>0.001665928837231601</v>
       </c>
       <c r="E10">
-        <v>0.6569889858712514</v>
+        <v>2.510691302386903</v>
       </c>
       <c r="F10">
-        <v>0.7986707726857531</v>
+        <v>2.219875943706441</v>
       </c>
       <c r="G10">
-        <v>0.7309386318265751</v>
+        <v>2.330962373727459</v>
       </c>
       <c r="H10">
-        <v>0.5548613196053225</v>
+        <v>1.09909916184327</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.566730516189352</v>
+        <v>7.199767712873665</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0789801732273645</v>
+        <v>0.2663997739907416</v>
       </c>
       <c r="D11">
-        <v>0.0002924779469006822</v>
+        <v>0.001915683333009399</v>
       </c>
       <c r="E11">
-        <v>0.7042806635774639</v>
+        <v>2.732207894186843</v>
       </c>
       <c r="F11">
-        <v>0.8395893270043331</v>
+        <v>2.398828895108977</v>
       </c>
       <c r="G11">
-        <v>0.7754870784961554</v>
+        <v>2.521496307624062</v>
       </c>
       <c r="H11">
-        <v>0.5728542709317423</v>
+        <v>1.184794111419876</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.699107961274422</v>
+        <v>7.783400823173906</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08084590513000478</v>
+        <v>0.2739459154648216</v>
       </c>
       <c r="D12">
-        <v>0.0002973680178814941</v>
+        <v>0.002017159607056618</v>
       </c>
       <c r="E12">
-        <v>0.7222246361524327</v>
+        <v>2.817957909843145</v>
       </c>
       <c r="F12">
-        <v>0.8551453888328808</v>
+        <v>2.46754467972977</v>
       </c>
       <c r="G12">
-        <v>0.792403709720702</v>
+        <v>2.594671883425775</v>
       </c>
       <c r="H12">
-        <v>0.5797161956361379</v>
+        <v>1.217744867605148</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.749435134041619</v>
+        <v>8.007626460111908</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08044394031183799</v>
+        <v>0.2723167654307304</v>
       </c>
       <c r="D13">
-        <v>0.000296312247906716</v>
+        <v>0.001994971833669368</v>
       </c>
       <c r="E13">
-        <v>0.7183584476847926</v>
+        <v>2.799400977174713</v>
       </c>
       <c r="F13">
-        <v>0.8517923789561763</v>
+        <v>2.452700644388045</v>
       </c>
       <c r="G13">
-        <v>0.7887582956824133</v>
+        <v>2.578863761051082</v>
       </c>
       <c r="H13">
-        <v>0.5782361981203792</v>
+        <v>1.210624768791092</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.73858738144321</v>
+        <v>7.959183500102142</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07913360242827139</v>
+        <v>0.2670188391476813</v>
       </c>
       <c r="D14">
-        <v>0.000292879094427656</v>
+        <v>0.001923884253125063</v>
       </c>
       <c r="E14">
-        <v>0.7057561935255734</v>
+        <v>2.739223011611088</v>
       </c>
       <c r="F14">
-        <v>0.8408679032461777</v>
+        <v>2.404462211913057</v>
       </c>
       <c r="G14">
-        <v>0.7768778687636484</v>
+        <v>2.527494942718363</v>
       </c>
       <c r="H14">
-        <v>0.5734178332718614</v>
+        <v>1.187494495968991</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.70324440486047</v>
+        <v>7.801780359757856</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07833140874210187</v>
+        <v>0.2637850368222558</v>
       </c>
       <c r="D15">
-        <v>0.0002907836756118609</v>
+        <v>0.001881287360001371</v>
       </c>
       <c r="E15">
-        <v>0.69804167939904</v>
+        <v>2.702616540131203</v>
       </c>
       <c r="F15">
-        <v>0.8341843332764256</v>
+        <v>2.375043301035845</v>
       </c>
       <c r="G15">
-        <v>0.7696069354176416</v>
+        <v>2.49616878264834</v>
       </c>
       <c r="H15">
-        <v>0.5704727604213815</v>
+        <v>1.173394083632843</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.681621796540753</v>
+        <v>7.705801621844785</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07374082122164793</v>
+        <v>0.2454166663305699</v>
       </c>
       <c r="D16">
-        <v>0.0002788842494367838</v>
+        <v>0.001650487615681762</v>
       </c>
       <c r="E16">
-        <v>0.6539031880556792</v>
+        <v>2.496455913496703</v>
       </c>
       <c r="F16">
-        <v>0.7960051418863259</v>
+        <v>2.208305345196521</v>
       </c>
       <c r="G16">
-        <v>0.7280338090901068</v>
+        <v>2.318644397300602</v>
       </c>
       <c r="H16">
-        <v>0.5536921836553006</v>
+        <v>1.093564380941984</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.558106947691215</v>
+        <v>7.162046708924834</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07093033230584922</v>
+        <v>0.2342831362164333</v>
       </c>
       <c r="D17">
-        <v>0.0002716745862196834</v>
+        <v>0.001519568058006238</v>
       </c>
       <c r="E17">
-        <v>0.6268859407979761</v>
+        <v>2.372924424841159</v>
       </c>
       <c r="F17">
-        <v>0.7726911580841431</v>
+        <v>2.107544109263912</v>
       </c>
       <c r="G17">
-        <v>0.7026125999636008</v>
+        <v>2.21138044995385</v>
       </c>
       <c r="H17">
-        <v>0.5434835327371275</v>
+        <v>1.045397530264637</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.482684641670062</v>
+        <v>6.833634345312589</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06931587337912504</v>
+        <v>0.2279249158608252</v>
       </c>
       <c r="D18">
-        <v>0.0002675583530535874</v>
+        <v>0.001447746894658763</v>
       </c>
       <c r="E18">
-        <v>0.6113675376913505</v>
+        <v>2.302847725260563</v>
       </c>
       <c r="F18">
-        <v>0.7593208267845739</v>
+        <v>2.050103710398389</v>
       </c>
       <c r="G18">
-        <v>0.6880209333434948</v>
+        <v>2.150236926957348</v>
       </c>
       <c r="H18">
-        <v>0.5376431314455203</v>
+        <v>1.017965804266311</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.439431214395086</v>
+        <v>6.646479369480573</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06876959626471546</v>
+        <v>0.2257795766693818</v>
       </c>
       <c r="D19">
-        <v>0.0002661696759360677</v>
+        <v>0.001423988621933603</v>
       </c>
       <c r="E19">
-        <v>0.6061168248241273</v>
+        <v>2.279279107076533</v>
       </c>
       <c r="F19">
-        <v>0.7548005734839336</v>
+        <v>2.030739619932632</v>
       </c>
       <c r="G19">
-        <v>0.6830855503779958</v>
+        <v>2.129624943839644</v>
       </c>
       <c r="H19">
-        <v>0.5356710416513693</v>
+        <v>1.008722580316601</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.424808134334114</v>
+        <v>6.583396357986373</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07122929976867454</v>
+        <v>0.2354635226563886</v>
       </c>
       <c r="D20">
-        <v>0.0002724388452548521</v>
+        <v>0.001533135105258321</v>
       </c>
       <c r="E20">
-        <v>0.6297597570736286</v>
+        <v>2.385971352643622</v>
       </c>
       <c r="F20">
-        <v>0.775168901272778</v>
+        <v>2.118216028934157</v>
       </c>
       <c r="G20">
-        <v>0.7053156233761513</v>
+        <v>2.222740651145358</v>
       </c>
       <c r="H20">
-        <v>0.5445670137242189</v>
+        <v>1.050496250780895</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.490700254398405</v>
+        <v>6.8684109743661</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07951839145820827</v>
+        <v>0.2685725815506714</v>
       </c>
       <c r="D21">
-        <v>0.0002938859198775567</v>
+        <v>0.001944564180361485</v>
       </c>
       <c r="E21">
-        <v>0.7094567898753326</v>
+        <v>2.756845047937432</v>
       </c>
       <c r="F21">
-        <v>0.8440750202746301</v>
+        <v>2.418603928241652</v>
       </c>
       <c r="G21">
-        <v>0.7803661498239478</v>
+        <v>2.542553970381448</v>
       </c>
       <c r="H21">
-        <v>0.574831787014972</v>
+        <v>1.194274189295356</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.713620071985758</v>
+        <v>7.847921759980068</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08495478170297588</v>
+        <v>0.2907071650738544</v>
       </c>
       <c r="D22">
-        <v>0.0003082308939936773</v>
+        <v>0.002254582338927946</v>
       </c>
       <c r="E22">
-        <v>0.761752559676097</v>
+        <v>3.010319739583622</v>
       </c>
       <c r="F22">
-        <v>0.8894657372637198</v>
+        <v>2.62054894697944</v>
       </c>
       <c r="G22">
-        <v>0.8296911384626071</v>
+        <v>2.75763744905791</v>
       </c>
       <c r="H22">
-        <v>0.5948938050911465</v>
+        <v>1.291199280796235</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.860470985179631</v>
+        <v>8.50713062798394</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08205150890745472</v>
+        <v>0.278843380103865</v>
       </c>
       <c r="D23">
-        <v>0.000300541928678788</v>
+        <v>0.002084797735945498</v>
       </c>
       <c r="E23">
-        <v>0.7338211921434805</v>
+        <v>2.873890840097189</v>
       </c>
       <c r="F23">
-        <v>0.8652068872278846</v>
+        <v>2.512197432761681</v>
       </c>
       <c r="G23">
-        <v>0.8033398739481754</v>
+        <v>2.6422271087404</v>
       </c>
       <c r="H23">
-        <v>0.5841603510019127</v>
+        <v>1.239169762788748</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.781986552202</v>
+        <v>8.153367650803318</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0710941324479677</v>
+        <v>0.2349297382326085</v>
       </c>
       <c r="D24">
-        <v>0.0002720932353230676</v>
+        <v>0.001526990812238616</v>
       </c>
       <c r="E24">
-        <v>0.6284604608163136</v>
+        <v>2.380069923486857</v>
       </c>
       <c r="F24">
-        <v>0.774048610279479</v>
+        <v>2.113389743152652</v>
       </c>
       <c r="G24">
-        <v>0.7040935139324063</v>
+        <v>2.217603084283667</v>
       </c>
       <c r="H24">
-        <v>0.5440770826470782</v>
+        <v>1.048190314840525</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.487076060191725</v>
+        <v>6.852683346838091</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05935316374288391</v>
+        <v>0.1892619663243096</v>
       </c>
       <c r="D25">
-        <v>0.0002425453254126797</v>
+        <v>0.001054976978683175</v>
       </c>
       <c r="E25">
-        <v>0.5156103763282829</v>
+        <v>1.883804834416708</v>
       </c>
       <c r="F25">
-        <v>0.677216033168321</v>
+        <v>1.702462287547874</v>
       </c>
       <c r="G25">
-        <v>0.5981795963497518</v>
+        <v>1.780202249119668</v>
       </c>
       <c r="H25">
-        <v>0.5020371973616591</v>
+        <v>0.8523906442426892</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.173826014020051</v>
+        <v>5.514713072742325</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.15668661804186</v>
+        <v>0.04090937657665705</v>
       </c>
       <c r="D2">
-        <v>0.000779001606727503</v>
+        <v>0.03736297686979029</v>
       </c>
       <c r="E2">
-        <v>1.53970234696358</v>
+        <v>1.328168550416933</v>
       </c>
       <c r="F2">
-        <v>1.411838194398925</v>
+        <v>0.7393901392297408</v>
       </c>
       <c r="G2">
-        <v>1.47078863657137</v>
+        <v>0.6508298756863411</v>
       </c>
       <c r="H2">
-        <v>0.7146522364114389</v>
+        <v>0.008402411226733575</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01065797753652742</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4439152203193117</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5755335116993479</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.218185719871883</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.569781030130059</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1350901182879056</v>
+        <v>0.03479593883947985</v>
       </c>
       <c r="D3">
-        <v>0.0006217117502329561</v>
+        <v>0.0350496609927724</v>
       </c>
       <c r="E3">
-        <v>1.315835099816113</v>
+        <v>1.152778093781876</v>
       </c>
       <c r="F3">
-        <v>1.220407820569577</v>
+        <v>0.6795838658728783</v>
       </c>
       <c r="G3">
-        <v>1.266870858494229</v>
+        <v>0.5982363179662116</v>
       </c>
       <c r="H3">
-        <v>0.6243425658030048</v>
+        <v>0.005388082187113064</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.006864309987718809</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4256092886775917</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5332128859358036</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4.542518533385248</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.947959874792616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1220160928854597</v>
+        <v>0.03103518840746489</v>
       </c>
       <c r="D4">
-        <v>0.0005359160906732718</v>
+        <v>0.03362668927268331</v>
       </c>
       <c r="E4">
-        <v>1.18189922586653</v>
+        <v>1.045641616891331</v>
       </c>
       <c r="F4">
-        <v>1.105047454815391</v>
+        <v>0.6437476263895618</v>
       </c>
       <c r="G4">
-        <v>1.143911410704021</v>
+        <v>0.566763209438605</v>
       </c>
       <c r="H4">
-        <v>0.5701128960520805</v>
+        <v>0.003823862321490124</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.004933869178812778</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4148618754010727</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5075915096487265</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>4.127901535755427</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.57346229737999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.11672838200775</v>
+        <v>0.02926936321044593</v>
       </c>
       <c r="D5">
-        <v>0.0005031721035784198</v>
+        <v>0.03311349589002077</v>
       </c>
       <c r="E5">
-        <v>1.128062344840757</v>
+        <v>1.002068872211765</v>
       </c>
       <c r="F5">
-        <v>1.058511772599587</v>
+        <v>0.6281964833028155</v>
       </c>
       <c r="G5">
-        <v>1.094289171362476</v>
+        <v>0.5528635983064447</v>
       </c>
       <c r="H5">
-        <v>0.5482838683211639</v>
+        <v>0.003250804424746789</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.004289006396915429</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.409951335093993</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4960509103887105</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.958891973955986</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.422440297432729</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1158525928203886</v>
+        <v>0.02869676348209538</v>
       </c>
       <c r="D6">
-        <v>0.00049785588780904</v>
+        <v>0.03311116675758541</v>
       </c>
       <c r="E6">
-        <v>1.119163788280417</v>
+        <v>0.9948091516411068</v>
       </c>
       <c r="F6">
-        <v>1.050811200407267</v>
+        <v>0.6242237245847306</v>
       </c>
       <c r="G6">
-        <v>1.086076498555599</v>
+        <v>0.5490305678093534</v>
       </c>
       <c r="H6">
-        <v>0.5446744620098514</v>
+        <v>0.003157181339369153</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.004255359702204586</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4083556212425918</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4926999362042679</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3.930759546258628</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.397452337260404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1219446273492082</v>
+        <v>0.0302432203265397</v>
       </c>
       <c r="D7">
-        <v>0.0005354661119614246</v>
+        <v>0.03384711831103715</v>
       </c>
       <c r="E7">
-        <v>1.181170330750106</v>
+        <v>1.044968459292335</v>
       </c>
       <c r="F7">
-        <v>1.10441802891647</v>
+        <v>0.6397002632292867</v>
       </c>
       <c r="G7">
-        <v>1.143240326169803</v>
+        <v>0.5623716881841574</v>
       </c>
       <c r="H7">
-        <v>0.5698174554598552</v>
+        <v>0.003808918963607022</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.005093222459974456</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4126437052897245</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5034943476480009</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>4.125432835058575</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.571419440487318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1491972113657596</v>
+        <v>0.03776815457045046</v>
       </c>
       <c r="D8">
-        <v>0.0007222109979487801</v>
+        <v>0.03687170599576106</v>
       </c>
       <c r="E8">
-        <v>1.46169196966035</v>
+        <v>1.267439226074387</v>
       </c>
       <c r="F8">
-        <v>1.345334653042116</v>
+        <v>0.7134656851997434</v>
       </c>
       <c r="G8">
-        <v>1.399960810394191</v>
+        <v>0.6269158656216547</v>
       </c>
       <c r="H8">
-        <v>0.6832367467129075</v>
+        <v>0.007287780141422395</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.009445792975910194</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4346411279079518</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5556064900492075</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.984851290162283</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.353705122039003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2044568564856917</v>
+        <v>0.05398323061005073</v>
       </c>
       <c r="D9">
-        <v>0.001200558151039477</v>
+        <v>0.04237347500125566</v>
       </c>
       <c r="E9">
-        <v>2.047072157524525</v>
+        <v>1.709634144662331</v>
       </c>
       <c r="F9">
-        <v>1.838748340527687</v>
+        <v>0.8731769570916299</v>
       </c>
       <c r="G9">
-        <v>1.925268169828058</v>
+        <v>0.7687060053582968</v>
       </c>
       <c r="H9">
-        <v>0.9172050607765243</v>
+        <v>0.0166782667843024</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.02131788954787073</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4860653958338332</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6684359092366918</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.675353071877112</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.958210129437589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2466935326657165</v>
+        <v>0.06676048350617947</v>
       </c>
       <c r="D10">
-        <v>0.001665928837231601</v>
+        <v>0.04789714019267421</v>
       </c>
       <c r="E10">
-        <v>2.510691302386903</v>
+        <v>1.937921640322671</v>
       </c>
       <c r="F10">
-        <v>2.219875943706441</v>
+        <v>0.9745580345102809</v>
       </c>
       <c r="G10">
-        <v>2.330962373727459</v>
+        <v>0.8544848692292675</v>
       </c>
       <c r="H10">
-        <v>1.09909916184327</v>
+        <v>0.0248214839428309</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.03253590200098522</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5149555434611415</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7365335582460091</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.92226895233614</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>7.199767712873665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2663997739907416</v>
+        <v>0.08133216929470422</v>
       </c>
       <c r="D11">
-        <v>0.001915683333009399</v>
+        <v>0.0644814209169482</v>
       </c>
       <c r="E11">
-        <v>2.732207894186843</v>
+        <v>1.254116324904686</v>
       </c>
       <c r="F11">
-        <v>2.398828895108977</v>
+        <v>0.843459292247303</v>
       </c>
       <c r="G11">
-        <v>2.521496307624062</v>
+        <v>0.70200042706999</v>
       </c>
       <c r="H11">
-        <v>1.184794111419876</v>
+        <v>0.04062274703118618</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.03583930938688962</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4322448325985988</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6296297470688259</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.472275921397454</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>7.783400823173906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2739459154648216</v>
+        <v>0.09359786592781916</v>
       </c>
       <c r="D12">
-        <v>0.002017159607056618</v>
+        <v>0.07921324517705131</v>
       </c>
       <c r="E12">
-        <v>2.817957909843145</v>
+        <v>0.7606444405516868</v>
       </c>
       <c r="F12">
-        <v>2.46754467972977</v>
+        <v>0.7250747915156808</v>
       </c>
       <c r="G12">
-        <v>2.594671883425775</v>
+        <v>0.573749036944676</v>
       </c>
       <c r="H12">
-        <v>1.217744867605148</v>
+        <v>0.07663171555955728</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.03610543874353311</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3651073547494548</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5378448001577354</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.674334129951433</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>8.007626460111908</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2723167654307304</v>
+        <v>0.1033853569020238</v>
       </c>
       <c r="D13">
-        <v>0.001994971833669368</v>
+        <v>0.09350242782321772</v>
       </c>
       <c r="E13">
-        <v>2.799400977174713</v>
+        <v>0.3858679429044969</v>
       </c>
       <c r="F13">
-        <v>2.452700644388045</v>
+        <v>0.6037161326538083</v>
       </c>
       <c r="G13">
-        <v>2.578863761051082</v>
+        <v>0.450219630776246</v>
       </c>
       <c r="H13">
-        <v>1.210624768791092</v>
+        <v>0.1295613857129752</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.03421495508556394</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3026530622747856</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4463080859694131</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.617824530372502</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>7.959183500102142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2670188391476813</v>
+        <v>0.1088836410232261</v>
       </c>
       <c r="D14">
-        <v>0.001923884253125063</v>
+        <v>0.1035645206459108</v>
       </c>
       <c r="E14">
-        <v>2.739223011611088</v>
+        <v>0.1959940949420229</v>
       </c>
       <c r="F14">
-        <v>2.404462211913057</v>
+        <v>0.518370751847506</v>
       </c>
       <c r="G14">
-        <v>2.527494942718363</v>
+        <v>0.3673665636674741</v>
       </c>
       <c r="H14">
-        <v>1.187494495968991</v>
+        <v>0.1769959924867521</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.03207214853277129</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2616648289457402</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3829015713518018</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.461516634610064</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>7.801780359757856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2637850368222558</v>
+        <v>0.109038810635397</v>
       </c>
       <c r="D15">
-        <v>0.001881287360001371</v>
+        <v>0.1057585972536401</v>
       </c>
       <c r="E15">
-        <v>2.702616540131203</v>
+        <v>0.1586047610395518</v>
       </c>
       <c r="F15">
-        <v>2.375043301035845</v>
+        <v>0.4950722828907104</v>
       </c>
       <c r="G15">
-        <v>2.49616878264834</v>
+        <v>0.3457842970589979</v>
       </c>
       <c r="H15">
-        <v>1.173394083632843</v>
+        <v>0.1888423241359476</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.03115645985656901</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2515143926756735</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3657311481802452</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.3680876958814</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>7.705801621844785</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2454166663305699</v>
+        <v>0.1005081763793925</v>
       </c>
       <c r="D16">
-        <v>0.001650487615681762</v>
+        <v>0.1000657553913271</v>
       </c>
       <c r="E16">
-        <v>2.496455913496703</v>
+        <v>0.1532940949621882</v>
       </c>
       <c r="F16">
-        <v>2.208305345196521</v>
+        <v>0.476270658885845</v>
       </c>
       <c r="G16">
-        <v>2.318644397300602</v>
+        <v>0.3342814054795866</v>
       </c>
       <c r="H16">
-        <v>1.093564380941984</v>
+        <v>0.1735852481577922</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02671417734941883</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2514931187065486</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3549034721025421</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.840929460543975</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>7.162046708924834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2342831362164333</v>
+        <v>0.09104290159598349</v>
       </c>
       <c r="D17">
-        <v>0.001519568058006238</v>
+        <v>0.09029161674225605</v>
       </c>
       <c r="E17">
-        <v>2.372924424841159</v>
+        <v>0.2359898758739334</v>
       </c>
       <c r="F17">
-        <v>2.107544109263912</v>
+        <v>0.5060549172794921</v>
       </c>
       <c r="G17">
-        <v>2.21138044995385</v>
+        <v>0.367896513976504</v>
       </c>
       <c r="H17">
-        <v>1.045397530264637</v>
+        <v>0.134812122157868</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.02449276211266671</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2725977438684453</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3792297461619256</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.520659295171811</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.833634345312589</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2279249158608252</v>
+        <v>0.08109571174404095</v>
       </c>
       <c r="D18">
-        <v>0.001447746894658763</v>
+        <v>0.07654680605394759</v>
       </c>
       <c r="E18">
-        <v>2.302847725260563</v>
+        <v>0.4668607615262488</v>
       </c>
       <c r="F18">
-        <v>2.050103710398389</v>
+        <v>0.5873795522700362</v>
       </c>
       <c r="G18">
-        <v>2.150236926957348</v>
+        <v>0.4525719463765228</v>
       </c>
       <c r="H18">
-        <v>1.017965804266311</v>
+        <v>0.08255718033473869</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.02367278514754467</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3182762311987801</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4424223646859957</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.341315219580679</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>6.646479369480573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2257795766693818</v>
+        <v>0.07036352060503503</v>
       </c>
       <c r="D19">
-        <v>0.001423988621933603</v>
+        <v>0.06272944270148884</v>
       </c>
       <c r="E19">
-        <v>2.279279107076533</v>
+        <v>0.8980245171909047</v>
       </c>
       <c r="F19">
-        <v>2.030739619932632</v>
+        <v>0.70559597167032</v>
       </c>
       <c r="G19">
-        <v>2.129624943839644</v>
+        <v>0.5764974547164314</v>
       </c>
       <c r="H19">
-        <v>1.008722580316601</v>
+        <v>0.03982997922925335</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.02455902549207423</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3820689767637191</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5323755911956738</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.28839959140322</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6.583396357986373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2354635226563886</v>
+        <v>0.06092831850519076</v>
       </c>
       <c r="D20">
-        <v>0.001533135105258321</v>
+        <v>0.04726624821547176</v>
       </c>
       <c r="E20">
-        <v>2.385971352643622</v>
+        <v>1.87308910940753</v>
       </c>
       <c r="F20">
-        <v>2.118216028934157</v>
+        <v>0.9345111492575882</v>
       </c>
       <c r="G20">
-        <v>2.222740651145358</v>
+        <v>0.8173431847778971</v>
       </c>
       <c r="H20">
-        <v>1.050496250780895</v>
+        <v>0.02245311282663209</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02981874194889134</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4999515085676052</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7053349597493508</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.593282505368734</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>6.8684109743661</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2685725815506714</v>
+        <v>0.06975463830455197</v>
       </c>
       <c r="D21">
-        <v>0.001944564180361485</v>
+        <v>0.04924419416243353</v>
       </c>
       <c r="E21">
-        <v>2.756845047937432</v>
+        <v>2.208392865909843</v>
       </c>
       <c r="F21">
-        <v>2.418603928241652</v>
+        <v>1.04933835363758</v>
       </c>
       <c r="G21">
-        <v>2.542553970381448</v>
+        <v>0.9233729455499287</v>
       </c>
       <c r="H21">
-        <v>1.194274189295356</v>
+        <v>0.03055833497571436</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.03984681270380364</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5423008886688194</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.7859897202819397</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.557373266344939</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>7.847921759980068</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2907071650738544</v>
+        <v>0.07717945256685255</v>
       </c>
       <c r="D22">
-        <v>0.002254582338927946</v>
+        <v>0.05092090064071897</v>
       </c>
       <c r="E22">
-        <v>3.010319739583622</v>
+        <v>2.377542215414479</v>
       </c>
       <c r="F22">
-        <v>2.62054894697944</v>
+        <v>1.120808435997176</v>
       </c>
       <c r="G22">
-        <v>2.75763744905791</v>
+        <v>0.9885588530681417</v>
       </c>
       <c r="H22">
-        <v>1.291199280796235</v>
+        <v>0.03601278256015927</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.04678421345829342</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5679844401991829</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.836810941479861</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.189611849344942</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>8.50713062798394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.278843380103865</v>
+        <v>0.07414751712835965</v>
       </c>
       <c r="D23">
-        <v>0.002084797735945498</v>
+        <v>0.04973648604321568</v>
       </c>
       <c r="E23">
-        <v>2.873890840097189</v>
+        <v>2.287238243534432</v>
       </c>
       <c r="F23">
-        <v>2.512197432761681</v>
+        <v>1.087108175093462</v>
       </c>
       <c r="G23">
-        <v>2.6422271087404</v>
+        <v>0.9586575555125876</v>
       </c>
       <c r="H23">
-        <v>1.239169762788748</v>
+        <v>0.03307401877069571</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.04285275846590508</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.556746045119425</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.8143571777232381</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.852227566899273</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>8.153367650803318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2349297382326085</v>
+        <v>0.06140277192123023</v>
       </c>
       <c r="D24">
-        <v>0.001526990812238616</v>
+        <v>0.04570832714288997</v>
       </c>
       <c r="E24">
-        <v>2.380069923486857</v>
+        <v>1.948486197819932</v>
       </c>
       <c r="F24">
-        <v>2.113389743152652</v>
+        <v>0.9559542797002649</v>
       </c>
       <c r="G24">
-        <v>2.217603084283667</v>
+        <v>0.8411238717841059</v>
       </c>
       <c r="H24">
-        <v>1.048190314840525</v>
+        <v>0.02291846676572251</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02961374356449298</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5120569890640638</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7237673155187352</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.579828303477314</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>6.852683346838091</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1892619663243096</v>
+        <v>0.04814992459321843</v>
       </c>
       <c r="D25">
-        <v>0.001054976978683175</v>
+        <v>0.04131460166042444</v>
       </c>
       <c r="E25">
-        <v>1.883804834416708</v>
+        <v>1.589002308963728</v>
       </c>
       <c r="F25">
-        <v>1.702462287547874</v>
+        <v>0.8219197097340469</v>
       </c>
       <c r="G25">
-        <v>1.780202249119668</v>
+        <v>0.7216767894572058</v>
       </c>
       <c r="H25">
-        <v>0.8523906442426892</v>
+        <v>0.01380194087116615</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01791862482795015</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4676998235824072</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6302227748281908</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.216643387449551</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.514713072742325</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,43 +436,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04090937657665705</v>
+        <v>0.01646969375957497</v>
       </c>
       <c r="D2">
-        <v>0.03736297686979029</v>
+        <v>0.04733642577984654</v>
       </c>
       <c r="E2">
-        <v>1.328168550416933</v>
+        <v>1.32318586870629</v>
       </c>
       <c r="F2">
-        <v>0.7393901392297408</v>
+        <v>0.6075849976251533</v>
       </c>
       <c r="G2">
-        <v>0.6508298756863411</v>
+        <v>0.4879229563787533</v>
       </c>
       <c r="H2">
-        <v>0.008402411226733575</v>
+        <v>0.007885622319689201</v>
       </c>
       <c r="I2">
-        <v>0.01065797753652742</v>
+        <v>0.009425935034558464</v>
       </c>
       <c r="J2">
-        <v>0.4439152203193117</v>
+        <v>0.4142278790599079</v>
       </c>
       <c r="K2">
-        <v>0.5755335116993479</v>
+        <v>0.4410557727361066</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2314448200781314</v>
       </c>
       <c r="M2">
-        <v>5.218185719871883</v>
+        <v>0.1195651693563136</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>5.206838469913862</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,8 +480,14 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,43 +495,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03479593883947985</v>
+        <v>0.01382482454052791</v>
       </c>
       <c r="D3">
-        <v>0.0350496609927724</v>
+        <v>0.0430319875598002</v>
       </c>
       <c r="E3">
-        <v>1.152778093781876</v>
+        <v>1.14988049048867</v>
       </c>
       <c r="F3">
-        <v>0.6795838658728783</v>
+        <v>0.568064386688107</v>
       </c>
       <c r="G3">
-        <v>0.5982363179662116</v>
+        <v>0.4576170979885887</v>
       </c>
       <c r="H3">
-        <v>0.005388082187113064</v>
+        <v>0.005124811640407456</v>
       </c>
       <c r="I3">
-        <v>0.006864309987718809</v>
+        <v>0.006424149857843897</v>
       </c>
       <c r="J3">
-        <v>0.4256092886775917</v>
+        <v>0.4032353414893493</v>
       </c>
       <c r="K3">
-        <v>0.5332128859358036</v>
+        <v>0.4182324189192101</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2307440564419849</v>
       </c>
       <c r="M3">
-        <v>4.542518533385248</v>
+        <v>0.1031236875160353</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>4.536016594595708</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,8 +539,14 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,43 +554,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03103518840746489</v>
+        <v>0.01228501789893954</v>
       </c>
       <c r="D4">
-        <v>0.03362668927268331</v>
+        <v>0.0404096984880411</v>
       </c>
       <c r="E4">
-        <v>1.045641616891331</v>
+        <v>1.043890760841506</v>
       </c>
       <c r="F4">
-        <v>0.6437476263895618</v>
+        <v>0.5443732565887203</v>
       </c>
       <c r="G4">
-        <v>0.566763209438605</v>
+        <v>0.4397211341012195</v>
       </c>
       <c r="H4">
-        <v>0.003823862321490124</v>
+        <v>0.003681395632995077</v>
       </c>
       <c r="I4">
-        <v>0.004933869178812778</v>
+        <v>0.004863029730440616</v>
       </c>
       <c r="J4">
-        <v>0.4148618754010727</v>
+        <v>0.396585670275627</v>
       </c>
       <c r="K4">
-        <v>0.5075915096487265</v>
+        <v>0.4043057777568109</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2301204432440436</v>
       </c>
       <c r="M4">
-        <v>4.127901535755427</v>
+        <v>0.09381983760313872</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4.12401182892421</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,8 +598,14 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,43 +613,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02926936321044593</v>
+        <v>0.01154786995253332</v>
       </c>
       <c r="D5">
-        <v>0.03311349589002077</v>
+        <v>0.03942316828570824</v>
       </c>
       <c r="E5">
-        <v>1.002068872211765</v>
+        <v>1.000759662313754</v>
       </c>
       <c r="F5">
-        <v>0.6281964833028155</v>
+        <v>0.5338996710322377</v>
       </c>
       <c r="G5">
-        <v>0.5528635983064447</v>
+        <v>0.4315854319193448</v>
       </c>
       <c r="H5">
-        <v>0.003250804424746789</v>
+        <v>0.003149919744410923</v>
       </c>
       <c r="I5">
-        <v>0.004289006396915429</v>
+        <v>0.004355477240943095</v>
       </c>
       <c r="J5">
-        <v>0.409951335093993</v>
+        <v>0.3933587033548918</v>
       </c>
       <c r="K5">
-        <v>0.4960509103887105</v>
+        <v>0.3977171458148447</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2294011422084026</v>
       </c>
       <c r="M5">
-        <v>3.958891973955986</v>
+        <v>0.08993605502496749</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>3.955996040764205</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,8 +657,14 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,43 +672,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02869676348209538</v>
+        <v>0.01127278702556822</v>
       </c>
       <c r="D6">
-        <v>0.03311116675758541</v>
+        <v>0.03935447851104357</v>
       </c>
       <c r="E6">
-        <v>0.9948091516411068</v>
+        <v>0.993576117409475</v>
       </c>
       <c r="F6">
-        <v>0.6242237245847306</v>
+        <v>0.5310108343085744</v>
       </c>
       <c r="G6">
-        <v>0.5490305678093534</v>
+        <v>0.4290207358405951</v>
       </c>
       <c r="H6">
-        <v>0.003157181339369153</v>
+        <v>0.003063101144000768</v>
       </c>
       <c r="I6">
-        <v>0.004255359702204586</v>
+        <v>0.004361285871260279</v>
       </c>
       <c r="J6">
-        <v>0.4083556212425918</v>
+        <v>0.3921670407059707</v>
       </c>
       <c r="K6">
-        <v>0.4926999362042679</v>
+        <v>0.3954913923723353</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2287718779206109</v>
       </c>
       <c r="M6">
-        <v>3.930759546258628</v>
+        <v>0.08895346081254729</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>3.928034308342149</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,8 +716,14 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,43 +731,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0302432203265397</v>
+        <v>0.01197355603585848</v>
       </c>
       <c r="D7">
-        <v>0.03384711831103715</v>
+        <v>0.04081705618723674</v>
       </c>
       <c r="E7">
-        <v>1.044968459292335</v>
+        <v>1.043194018301435</v>
       </c>
       <c r="F7">
-        <v>0.6397002632292867</v>
+        <v>0.5391547334411726</v>
       </c>
       <c r="G7">
-        <v>0.5623716881841574</v>
+        <v>0.4387195525073651</v>
       </c>
       <c r="H7">
-        <v>0.003808918963607022</v>
+        <v>0.003664714203250208</v>
       </c>
       <c r="I7">
-        <v>0.005093222459974456</v>
+        <v>0.005064594478992213</v>
       </c>
       <c r="J7">
-        <v>0.4126437052897245</v>
+        <v>0.3889467118496981</v>
       </c>
       <c r="K7">
-        <v>0.5034943476480009</v>
+        <v>0.3997824236678937</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2281641380329482</v>
       </c>
       <c r="M7">
-        <v>4.125432835058575</v>
+        <v>0.09236255672740157</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>4.1214918751038</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,8 +775,14 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,43 +790,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03776815457045046</v>
+        <v>0.01537794886541732</v>
       </c>
       <c r="D8">
-        <v>0.03687170599576106</v>
+        <v>0.04675004332518284</v>
       </c>
       <c r="E8">
-        <v>1.267439226074387</v>
+        <v>1.26307956549779</v>
       </c>
       <c r="F8">
-        <v>0.7134656851997434</v>
+        <v>0.583324296101992</v>
       </c>
       <c r="G8">
-        <v>0.6269158656216547</v>
+        <v>0.4811300299705437</v>
       </c>
       <c r="H8">
-        <v>0.007287780141422395</v>
+        <v>0.006853810420983042</v>
       </c>
       <c r="I8">
-        <v>0.009445792975910194</v>
+        <v>0.008544984800574085</v>
       </c>
       <c r="J8">
-        <v>0.4346411279079518</v>
+        <v>0.389092362936978</v>
       </c>
       <c r="K8">
-        <v>0.5556064900492075</v>
+        <v>0.4246741760411226</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.227734123030924</v>
       </c>
       <c r="M8">
-        <v>4.984851290162283</v>
+        <v>0.1108219776326571</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>4.97497458596564</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,8 +834,14 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,43 +849,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05398323061005073</v>
+        <v>0.02321609219253773</v>
       </c>
       <c r="D9">
-        <v>0.04237347500125566</v>
+        <v>0.05749515258510485</v>
       </c>
       <c r="E9">
-        <v>1.709634144662331</v>
+        <v>1.69905689706367</v>
       </c>
       <c r="F9">
-        <v>0.8731769570916299</v>
+        <v>0.6878781235848948</v>
       </c>
       <c r="G9">
-        <v>0.7687060053582968</v>
+        <v>0.5679713349493341</v>
       </c>
       <c r="H9">
-        <v>0.0166782667843024</v>
+        <v>0.01536676157475247</v>
       </c>
       <c r="I9">
-        <v>0.02131788954787073</v>
+        <v>0.0175927611823381</v>
       </c>
       <c r="J9">
-        <v>0.4860653958338332</v>
+        <v>0.4141077057281422</v>
       </c>
       <c r="K9">
-        <v>0.6684359092366918</v>
+        <v>0.4849025511768588</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2297671505702183</v>
       </c>
       <c r="M9">
-        <v>6.675353071877112</v>
+        <v>0.1570382778980601</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>6.6506156837807</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,8 +893,14 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,43 +908,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06676048350617947</v>
+        <v>0.03107000803945326</v>
       </c>
       <c r="D10">
-        <v>0.04789714019267421</v>
+        <v>0.06826613756960853</v>
       </c>
       <c r="E10">
-        <v>1.937921640322671</v>
+        <v>1.921995176365883</v>
       </c>
       <c r="F10">
-        <v>0.9745580345102809</v>
+        <v>0.7410897375561376</v>
       </c>
       <c r="G10">
-        <v>0.8544848692292675</v>
+        <v>0.6337289320319144</v>
       </c>
       <c r="H10">
-        <v>0.0248214839428309</v>
+        <v>0.02263323620640367</v>
       </c>
       <c r="I10">
-        <v>0.03253590200098522</v>
+        <v>0.02594183999489097</v>
       </c>
       <c r="J10">
-        <v>0.5149555434611415</v>
+        <v>0.3929947340115518</v>
       </c>
       <c r="K10">
-        <v>0.7365335582460091</v>
+        <v>0.5105925379241825</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2233672515209051</v>
       </c>
       <c r="M10">
-        <v>7.92226895233614</v>
+        <v>0.1874705224008721</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>7.883371402334205</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,8 +952,14 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,43 +967,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08133216929470422</v>
+        <v>0.04423764135527364</v>
       </c>
       <c r="D11">
-        <v>0.0644814209169482</v>
+        <v>0.09109777205351577</v>
       </c>
       <c r="E11">
-        <v>1.254116324904686</v>
+        <v>1.24013777304846</v>
       </c>
       <c r="F11">
-        <v>0.843459292247303</v>
+        <v>0.6159341490310837</v>
       </c>
       <c r="G11">
-        <v>0.70200042706999</v>
+        <v>0.5439693513137627</v>
       </c>
       <c r="H11">
-        <v>0.04062274703118618</v>
+        <v>0.03842692596477093</v>
       </c>
       <c r="I11">
-        <v>0.03583930938688962</v>
+        <v>0.02849736936376601</v>
       </c>
       <c r="J11">
-        <v>0.4322448325985988</v>
+        <v>0.2779021767029519</v>
       </c>
       <c r="K11">
-        <v>0.6296297470688259</v>
+        <v>0.418577537967046</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1842998146178196</v>
       </c>
       <c r="M11">
-        <v>8.472275921397454</v>
+        <v>0.1591932060368748</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>8.428908521915673</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,8 +1011,14 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,43 +1026,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09359786592781916</v>
+        <v>0.05641077905952585</v>
       </c>
       <c r="D12">
-        <v>0.07921324517705131</v>
+        <v>0.1091437666047455</v>
       </c>
       <c r="E12">
-        <v>0.7606444405516868</v>
+        <v>0.7491993242494175</v>
       </c>
       <c r="F12">
-        <v>0.7250747915156808</v>
+        <v>0.5181077380962336</v>
       </c>
       <c r="G12">
-        <v>0.573749036944676</v>
+        <v>0.4567601173464197</v>
       </c>
       <c r="H12">
-        <v>0.07663171555955728</v>
+        <v>0.07457929299751243</v>
       </c>
       <c r="I12">
-        <v>0.03610543874353311</v>
+        <v>0.02868560084585337</v>
       </c>
       <c r="J12">
-        <v>0.3651073547494548</v>
+        <v>0.2186070578383479</v>
       </c>
       <c r="K12">
-        <v>0.5378448001577354</v>
+        <v>0.3506476994877303</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1586555533399974</v>
       </c>
       <c r="M12">
-        <v>8.674334129951433</v>
+        <v>0.1342905771519298</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>8.630475124449674</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,8 +1070,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,43 +1085,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1033853569020238</v>
+        <v>0.06691855270558023</v>
       </c>
       <c r="D13">
-        <v>0.09350242782321772</v>
+        <v>0.1236076712512784</v>
       </c>
       <c r="E13">
-        <v>0.3858679429044969</v>
+        <v>0.3772402400241148</v>
       </c>
       <c r="F13">
-        <v>0.6037161326538083</v>
+        <v>0.4323492771054376</v>
       </c>
       <c r="G13">
-        <v>0.450219630776246</v>
+        <v>0.3582734502437432</v>
       </c>
       <c r="H13">
-        <v>0.1295613857129752</v>
+        <v>0.1277713000459926</v>
       </c>
       <c r="I13">
-        <v>0.03421495508556394</v>
+        <v>0.02736055967786033</v>
       </c>
       <c r="J13">
-        <v>0.3026530622747856</v>
+        <v>0.1918950170608369</v>
       </c>
       <c r="K13">
-        <v>0.4463080859694131</v>
+        <v>0.2934427057429048</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1395206613066122</v>
       </c>
       <c r="M13">
-        <v>8.617824530372502</v>
+        <v>0.1097953847612629</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>8.576848546141889</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,8 +1129,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,43 +1144,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1088836410232261</v>
+        <v>0.07334877115532379</v>
       </c>
       <c r="D14">
-        <v>0.1035645206459108</v>
+        <v>0.1321420695936979</v>
       </c>
       <c r="E14">
-        <v>0.1959940949420229</v>
+        <v>0.1892441929728008</v>
       </c>
       <c r="F14">
-        <v>0.518370751847506</v>
+        <v>0.3769172921727346</v>
       </c>
       <c r="G14">
-        <v>0.3673665636674741</v>
+        <v>0.2874601506179459</v>
       </c>
       <c r="H14">
-        <v>0.1769959924867521</v>
+        <v>0.1754222361998217</v>
       </c>
       <c r="I14">
-        <v>0.03207214853277129</v>
+        <v>0.02588293172509282</v>
       </c>
       <c r="J14">
-        <v>0.2616648289457402</v>
+        <v>0.1834510435595504</v>
       </c>
       <c r="K14">
-        <v>0.3829015713518018</v>
+        <v>0.2574058000284438</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1284505069282851</v>
       </c>
       <c r="M14">
-        <v>8.461516634610064</v>
+        <v>0.09284430094710672</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>8.42391889597684</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,8 +1188,14 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,43 +1203,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.109038810635397</v>
+        <v>0.07387632727059668</v>
       </c>
       <c r="D15">
-        <v>0.1057585972536401</v>
+        <v>0.1333107676892382</v>
       </c>
       <c r="E15">
-        <v>0.1586047610395518</v>
+        <v>0.1523764747380341</v>
       </c>
       <c r="F15">
-        <v>0.4950722828907104</v>
+        <v>0.3635784716322874</v>
       </c>
       <c r="G15">
-        <v>0.3457842970589979</v>
+        <v>0.2673700684788045</v>
       </c>
       <c r="H15">
-        <v>0.1888423241359476</v>
+        <v>0.1873516753428248</v>
       </c>
       <c r="I15">
-        <v>0.03115645985656901</v>
+        <v>0.02528854430883154</v>
       </c>
       <c r="J15">
-        <v>0.2515143926756735</v>
+        <v>0.1848546871878938</v>
       </c>
       <c r="K15">
-        <v>0.3657311481802452</v>
+        <v>0.2489390946096606</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1262743488409086</v>
       </c>
       <c r="M15">
-        <v>8.3680876958814</v>
+        <v>0.08817780576235279</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>8.332020363230868</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,8 +1247,14 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,43 +1262,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1005081763793925</v>
+        <v>0.06564564267723227</v>
       </c>
       <c r="D16">
-        <v>0.1000657553913271</v>
+        <v>0.1224266061536099</v>
       </c>
       <c r="E16">
-        <v>0.1532940949621882</v>
+        <v>0.1480605501705945</v>
       </c>
       <c r="F16">
-        <v>0.476270658885845</v>
+        <v>0.3680967745472117</v>
       </c>
       <c r="G16">
-        <v>0.3342814054795866</v>
+        <v>0.243922489803488</v>
       </c>
       <c r="H16">
-        <v>0.1735852481577922</v>
+        <v>0.17241369762624</v>
       </c>
       <c r="I16">
-        <v>0.02671417734941883</v>
+        <v>0.02213555698973391</v>
       </c>
       <c r="J16">
-        <v>0.2514931187065486</v>
+        <v>0.2198267990591134</v>
       </c>
       <c r="K16">
-        <v>0.3549034721025421</v>
+        <v>0.2554849790170017</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1327771748961766</v>
       </c>
       <c r="M16">
-        <v>7.840929460543975</v>
+        <v>0.08428799518946661</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>7.811427205710345</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,8 +1306,14 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,43 +1321,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09104290159598349</v>
+        <v>0.05640919545020751</v>
       </c>
       <c r="D17">
-        <v>0.09029161674225605</v>
+        <v>0.1102604278924986</v>
       </c>
       <c r="E17">
-        <v>0.2359898758739334</v>
+        <v>0.2307177815214771</v>
       </c>
       <c r="F17">
-        <v>0.5060549172794921</v>
+        <v>0.3995885133387063</v>
       </c>
       <c r="G17">
-        <v>0.367896513976504</v>
+        <v>0.2633076373071503</v>
       </c>
       <c r="H17">
-        <v>0.134812122157868</v>
+        <v>0.133769851898947</v>
       </c>
       <c r="I17">
-        <v>0.02449276211266671</v>
+        <v>0.02052698350789406</v>
       </c>
       <c r="J17">
-        <v>0.2725977438684453</v>
+        <v>0.2520946819082042</v>
       </c>
       <c r="K17">
-        <v>0.3792297461619256</v>
+        <v>0.2787189460004846</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1438173992699667</v>
       </c>
       <c r="M17">
-        <v>7.520659295171811</v>
+        <v>0.0895239938699639</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>7.494217011915623</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,8 +1365,14 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,43 +1380,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08109571174404095</v>
+        <v>0.04622864199664889</v>
       </c>
       <c r="D18">
-        <v>0.07654680605394759</v>
+        <v>0.09538775794474219</v>
       </c>
       <c r="E18">
-        <v>0.4668607615262488</v>
+        <v>0.4605880186908706</v>
       </c>
       <c r="F18">
-        <v>0.5873795522700362</v>
+        <v>0.4660966693742665</v>
       </c>
       <c r="G18">
-        <v>0.4525719463765228</v>
+        <v>0.3235162992571361</v>
       </c>
       <c r="H18">
-        <v>0.08255718033473869</v>
+        <v>0.08149788017220772</v>
       </c>
       <c r="I18">
-        <v>0.02367278514754467</v>
+        <v>0.01980628535380546</v>
       </c>
       <c r="J18">
-        <v>0.3182762311987801</v>
+        <v>0.2940577002833749</v>
       </c>
       <c r="K18">
-        <v>0.4424223646859957</v>
+        <v>0.3253924546810012</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1625292694513547</v>
       </c>
       <c r="M18">
-        <v>7.341315219580679</v>
+        <v>0.1054514537028659</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>7.315560817449636</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,8 +1424,14 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,43 +1439,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.07036352060503503</v>
+        <v>0.03594809319145043</v>
       </c>
       <c r="D19">
-        <v>0.06272944270148884</v>
+        <v>0.08095061198444853</v>
       </c>
       <c r="E19">
-        <v>0.8980245171909047</v>
+        <v>0.8897109216820098</v>
       </c>
       <c r="F19">
-        <v>0.70559597167032</v>
+        <v>0.5576866980109045</v>
       </c>
       <c r="G19">
-        <v>0.5764974547164314</v>
+        <v>0.4139305095731913</v>
       </c>
       <c r="H19">
-        <v>0.03982997922925335</v>
+        <v>0.03860289589110266</v>
       </c>
       <c r="I19">
-        <v>0.02455902549207423</v>
+        <v>0.02047989893580215</v>
       </c>
       <c r="J19">
-        <v>0.3820689767637191</v>
+        <v>0.3440760578694579</v>
       </c>
       <c r="K19">
-        <v>0.5323755911956738</v>
+        <v>0.3878247997284276</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1860825051673949</v>
       </c>
       <c r="M19">
-        <v>7.28839959140322</v>
+        <v>0.1290084206974598</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>7.261360116420121</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,8 +1483,14 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,43 +1498,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06092831850519076</v>
+        <v>0.02735324533177419</v>
       </c>
       <c r="D20">
-        <v>0.04726624821547176</v>
+        <v>0.06574699291456909</v>
       </c>
       <c r="E20">
-        <v>1.87308910940753</v>
+        <v>1.858898506152912</v>
       </c>
       <c r="F20">
-        <v>0.9345111492575882</v>
+        <v>0.7232849088857165</v>
       </c>
       <c r="G20">
-        <v>0.8173431847778971</v>
+        <v>0.5959667371234048</v>
       </c>
       <c r="H20">
-        <v>0.02245311282663209</v>
+        <v>0.02054894773854121</v>
       </c>
       <c r="I20">
-        <v>0.02981874194889134</v>
+        <v>0.02430617759902454</v>
       </c>
       <c r="J20">
-        <v>0.4999515085676052</v>
+        <v>0.4123247502411402</v>
       </c>
       <c r="K20">
-        <v>0.7053349597493508</v>
+        <v>0.4986701584075064</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2231899130449904</v>
       </c>
       <c r="M20">
-        <v>7.593282505368734</v>
+        <v>0.1772264682573379</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>7.558956807286279</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,8 +1542,14 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,43 +1557,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06975463830455197</v>
+        <v>0.03487465278433888</v>
       </c>
       <c r="D21">
-        <v>0.04924419416243353</v>
+        <v>0.07502075706594979</v>
       </c>
       <c r="E21">
-        <v>2.208392865909843</v>
+        <v>2.187835203132749</v>
       </c>
       <c r="F21">
-        <v>1.04933835363758</v>
+        <v>0.7564377320373836</v>
       </c>
       <c r="G21">
-        <v>0.9233729455499287</v>
+        <v>0.7268155975920365</v>
       </c>
       <c r="H21">
-        <v>0.03055833497571436</v>
+        <v>0.02765451460329027</v>
       </c>
       <c r="I21">
-        <v>0.03984681270380364</v>
+        <v>0.03134674010098237</v>
       </c>
       <c r="J21">
-        <v>0.5423008886688194</v>
+        <v>0.3170306238001928</v>
       </c>
       <c r="K21">
-        <v>0.7859897202819397</v>
+        <v>0.5130454304608207</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2164158138152672</v>
       </c>
       <c r="M21">
-        <v>8.557373266344939</v>
+        <v>0.1993632496119702</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>8.508017092006412</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,8 +1601,14 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,43 +1616,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07717945256685255</v>
+        <v>0.04129726578837989</v>
       </c>
       <c r="D22">
-        <v>0.05092090064071897</v>
+        <v>0.08199421603627854</v>
       </c>
       <c r="E22">
-        <v>2.377542215414479</v>
+        <v>2.352692698711579</v>
       </c>
       <c r="F22">
-        <v>1.120808435997176</v>
+        <v>0.7724015482955195</v>
       </c>
       <c r="G22">
-        <v>0.9885588530681417</v>
+        <v>0.8168712861612448</v>
       </c>
       <c r="H22">
-        <v>0.03601278256015927</v>
+        <v>0.03239322673594058</v>
       </c>
       <c r="I22">
-        <v>0.04678421345829342</v>
+        <v>0.03602422780957326</v>
       </c>
       <c r="J22">
-        <v>0.5679844401991829</v>
+        <v>0.2574736176195174</v>
       </c>
       <c r="K22">
-        <v>0.836810941479861</v>
+        <v>0.5192354804868557</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2108974516489255</v>
       </c>
       <c r="M22">
-        <v>9.189611849344942</v>
+        <v>0.2129922790680183</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>9.129506762417805</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,8 +1660,14 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,43 +1675,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07414751712835965</v>
+        <v>0.03798467657197335</v>
       </c>
       <c r="D23">
-        <v>0.04973648604321568</v>
+        <v>0.07737221378835812</v>
       </c>
       <c r="E23">
-        <v>2.287238243534432</v>
+        <v>2.264796776143214</v>
       </c>
       <c r="F23">
-        <v>1.087108175093462</v>
+        <v>0.7722166614656345</v>
       </c>
       <c r="G23">
-        <v>0.9586575555125876</v>
+        <v>0.7651674856293766</v>
       </c>
       <c r="H23">
-        <v>0.03307401877069571</v>
+        <v>0.02985627550503711</v>
       </c>
       <c r="I23">
-        <v>0.04285275846590508</v>
+        <v>0.03327281597732412</v>
       </c>
       <c r="J23">
-        <v>0.556746045119425</v>
+        <v>0.3006213730827767</v>
       </c>
       <c r="K23">
-        <v>0.8143571777232381</v>
+        <v>0.5226734384171579</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2161553648687828</v>
       </c>
       <c r="M23">
-        <v>8.852227566899273</v>
+        <v>0.2084602273071567</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>8.798151723917272</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,8 +1719,14 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,43 +1734,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06140277192123023</v>
+        <v>0.02732064927968736</v>
       </c>
       <c r="D24">
-        <v>0.04570832714288997</v>
+        <v>0.06387966138807855</v>
       </c>
       <c r="E24">
-        <v>1.948486197819932</v>
+        <v>1.933910892024912</v>
       </c>
       <c r="F24">
-        <v>0.9559542797002649</v>
+        <v>0.7402756237839583</v>
       </c>
       <c r="G24">
-        <v>0.8411238717841059</v>
+        <v>0.6134999538164152</v>
       </c>
       <c r="H24">
-        <v>0.02291846676572251</v>
+        <v>0.02097671285488745</v>
       </c>
       <c r="I24">
-        <v>0.02961374356449298</v>
+        <v>0.02394581063102752</v>
       </c>
       <c r="J24">
-        <v>0.5120569890640638</v>
+        <v>0.4224130570208047</v>
       </c>
       <c r="K24">
-        <v>0.7237673155187352</v>
+        <v>0.5120450087184736</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2282319640167714</v>
       </c>
       <c r="M24">
-        <v>7.579828303477314</v>
+        <v>0.1822818924061949</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>7.545271278733992</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,8 +1778,14 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04814992459321843</v>
+        <v>0.02010893557378779</v>
       </c>
       <c r="D25">
-        <v>0.04131460166042444</v>
+        <v>0.05483125064748151</v>
       </c>
       <c r="E25">
-        <v>1.589002308963728</v>
+        <v>1.580375453945109</v>
       </c>
       <c r="F25">
-        <v>0.8219197097340469</v>
+        <v>0.655983604980328</v>
       </c>
       <c r="G25">
-        <v>0.7216767894572058</v>
+        <v>0.5340481442970599</v>
       </c>
       <c r="H25">
-        <v>0.01380194087116615</v>
+        <v>0.01278021852897016</v>
       </c>
       <c r="I25">
-        <v>0.01791862482795015</v>
+        <v>0.01521235698050916</v>
       </c>
       <c r="J25">
-        <v>0.4676998235824072</v>
+        <v>0.4121798185025938</v>
       </c>
       <c r="K25">
-        <v>0.6302227748281908</v>
+        <v>0.4648525814129272</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2279910762687649</v>
       </c>
       <c r="M25">
-        <v>6.216643387449551</v>
+        <v>0.1424517813567476</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>6.196626771629951</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
